--- a/InvoiceGeneration/src/main/resources/Template01.xlsx
+++ b/InvoiceGeneration/src/main/resources/Template01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rinku\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6EADF7-D7D2-4CA1-8470-C7130F46E428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8BBC2E-68C6-4F8A-83F2-734994C17106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>ishika bhute</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{63AE2516-6EFE-472C-8DAE-5C1F56EFCB27}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{04C67A75-AE72-41AD-A518-56BF5FBD9813}">
       <text>
         <r>
           <rPr>
@@ -50,11 +50,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="N8")</t>
+jx:area(lastCell ="N34")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{303C274E-B096-4452-8350-AC1490EEB899}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{7389F502-7957-4DE2-BFF7-78F87A51F703}">
       <text>
         <r>
           <rPr>
@@ -74,11 +74,35 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="J14")</t>
+jx:image(lastCell="C5" src="image" imageType="PNG")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{10C5954C-3BEB-45DA-A049-98BC87864F5A}">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{6863022E-8453-4615-8346-6D46F540B9C4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>ishika bhute:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:area(lastCell="J13")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{F82DDF29-2D68-4A10-91EE-2A60B30A92C5}">
       <text>
         <r>
           <rPr>
@@ -102,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L16" authorId="0" shapeId="0" xr:uid="{7369F19E-0B5B-4572-8D90-17B29913EA22}">
+    <comment ref="L16" authorId="0" shapeId="0" xr:uid="{5CE3EC49-A419-4368-819A-E07A4BD650C6}">
       <text>
         <r>
           <rPr>
@@ -131,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Invoice</t>
   </si>
@@ -169,7 +193,40 @@
     <t>THANK YOU FOR YOUR BUSINESS!</t>
   </si>
   <si>
-    <t>IshikaBhute, 965123485</t>
+    <t>${vendorData.vendorName}</t>
+  </si>
+  <si>
+    <t>${vendorData.city}</t>
+  </si>
+  <si>
+    <t>${vendorData.country}</t>
+  </si>
+  <si>
+    <t>${vendorData.pincode}</t>
+  </si>
+  <si>
+    <t>${image}</t>
+  </si>
+  <si>
+    <t>${invoiceData.invoiceNo}</t>
+  </si>
+  <si>
+    <t>${customerData.firstName}</t>
+  </si>
+  <si>
+    <t>${customerData.lastName}</t>
+  </si>
+  <si>
+    <t>${customerData.city}</t>
+  </si>
+  <si>
+    <t>${customerData.country}</t>
+  </si>
+  <si>
+    <t>${vendor}</t>
+  </si>
+  <si>
+    <t>Ishika Bhute,965123485</t>
   </si>
   <si>
     <t>${D.productModel.description}</t>
@@ -182,33 +239,6 @@
   </si>
   <si>
     <t>${D.amount}</t>
-  </si>
-  <si>
-    <t>${customerData.firstName}</t>
-  </si>
-  <si>
-    <t>${customerData.lastName}</t>
-  </si>
-  <si>
-    <t>${customerData.city}</t>
-  </si>
-  <si>
-    <t>${customerData.country}</t>
-  </si>
-  <si>
-    <t>${vendorData.vendorName}</t>
-  </si>
-  <si>
-    <t>${vendorData.city}</t>
-  </si>
-  <si>
-    <t>${vendorData.country}</t>
-  </si>
-  <si>
-    <t>${vendorData.pincode}</t>
-  </si>
-  <si>
-    <t>${invoiceData.invoiceNo}</t>
   </si>
   <si>
     <t>${invoiceData.invoiceDate}</t>
@@ -224,12 +254,18 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\);"/>
     <numFmt numFmtId="167" formatCode="0.00%;;0.00%"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -240,6 +276,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -294,25 +335,6 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -322,7 +344,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -458,6 +480,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF339966"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF339966"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF339966"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF339966"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF339966"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF339966"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF339966"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF339966"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF339966"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF339966"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="dotted">
         <color rgb="FF339966"/>
       </left>
@@ -498,80 +575,91 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,84 +676,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1343025" cy="933450"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4684013" y="3327563"/>
-          <a:ext cx="1323975" cy="904875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="F79646"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>LOGO HERE</a:t>
-          </a:r>
-          <a:endParaRPr sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -866,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M986"/>
+  <dimension ref="A1:M989"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -892,257 +902,305 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1"/>
     <row r="2" spans="1:13" ht="20.25" customHeight="1">
-      <c r="D2" s="27" t="s">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="20"/>
+    </row>
+    <row r="3" spans="1:13" ht="13.5" customHeight="1">
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="13.5" customHeight="1">
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="20"/>
+      <c r="L4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="13.5" customHeight="1">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" ht="13.5" customHeight="1">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" ht="12.75" customHeight="1">
+      <c r="L9" s="22"/>
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" spans="1:13" ht="12.75" customHeight="1">
+      <c r="B10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:13" ht="14.4">
+      <c r="B12" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.4">
+      <c r="B13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="15"/>
-    </row>
-    <row r="3" spans="1:13" ht="13.5" customHeight="1">
-      <c r="D3" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="13.5" customHeight="1">
-      <c r="D4" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1">
-      <c r="D5" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1">
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" ht="13.5" customHeight="1">
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" ht="12.75" customHeight="1">
-      <c r="L9" s="25"/>
-      <c r="M9" s="26"/>
-    </row>
-    <row r="10" spans="1:13" ht="12.75" customHeight="1">
-      <c r="B10" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-    </row>
-    <row r="12" spans="1:13" ht="14.4">
-      <c r="B12" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-    </row>
-    <row r="13" spans="1:13" ht="14.4">
-      <c r="B13" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="5" t="s">
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B16" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="4:12" ht="15.75" customHeight="1">
-      <c r="K17" s="10" t="s">
+    <row r="16" spans="1:13" ht="13.5" customHeight="1">
+      <c r="B16" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="13.5" customHeight="1">
+      <c r="B17" s="25"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="11">
+        <f t="shared" ref="L17:L19" si="0">J17*K17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="13.5" customHeight="1">
+      <c r="B18" s="25"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="13.5" customHeight="1">
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="15.75" customHeight="1">
+      <c r="K20" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="11">
-        <f>SUM(L16:L16)</f>
+      <c r="L20" s="16">
+        <f>SUM(L16:L19)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:12" ht="15.75" customHeight="1">
-      <c r="K18" s="10" t="s">
+    <row r="21" spans="2:12" ht="15.75" customHeight="1">
+      <c r="K21" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L21" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="15.75" customHeight="1">
-      <c r="K19" s="10" t="s">
+    <row r="22" spans="2:12" ht="15.75" customHeight="1">
+      <c r="K22" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="13">
-        <f>L17+(L17*L18)</f>
+      <c r="L22" s="18">
+        <f>L20+(L20*L21)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="15.75" customHeight="1"/>
-    <row r="21" spans="4:12" ht="15.75" customHeight="1">
-      <c r="D21" s="14" t="s">
+    <row r="23" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="24" spans="2:12" ht="15.75" customHeight="1">
+      <c r="D24" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-    </row>
-    <row r="22" spans="4:12" ht="12.75" customHeight="1">
-      <c r="D22" s="16">
-        <v>100254855</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-    </row>
-    <row r="23" spans="4:12" ht="4.5" customHeight="1"/>
-    <row r="24" spans="4:12" ht="15.75" customHeight="1">
-      <c r="D24" s="14" t="s">
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="2:12" ht="12.75" customHeight="1">
+      <c r="D25" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="2:12" ht="4.5" customHeight="1"/>
+    <row r="27" spans="2:12" ht="15.75" customHeight="1">
+      <c r="D27" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-    </row>
-    <row r="25" spans="4:12" ht="12.75" customHeight="1">
-      <c r="D25" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-    </row>
-    <row r="26" spans="4:12" ht="4.5" customHeight="1"/>
-    <row r="27" spans="4:12" ht="15.75" customHeight="1">
-      <c r="D27" s="14" t="s">
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="2:12" ht="12.75" customHeight="1">
+      <c r="D28" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="2:12" ht="4.5" customHeight="1"/>
+    <row r="30" spans="2:12" ht="15.75" customHeight="1">
+      <c r="D30" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-    </row>
-    <row r="28" spans="4:12" ht="15.75" customHeight="1"/>
-    <row r="29" spans="4:12" ht="15.75" customHeight="1"/>
-    <row r="30" spans="4:12" ht="15.75" customHeight="1"/>
-    <row r="31" spans="4:12" ht="15.75" customHeight="1"/>
-    <row r="32" spans="4:12" ht="15.75" customHeight="1"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:12" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="35" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="36" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
     <row r="37" ht="15.75" hidden="1" customHeight="1"/>
     <row r="38" ht="15.75" hidden="1" customHeight="1"/>
     <row r="39" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="41" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="42" ht="15.75" hidden="1" customHeight="1"/>
     <row r="43" ht="15.75" customHeight="1"/>
     <row r="44" ht="15.75" customHeight="1"/>
     <row r="45" ht="15.75" customHeight="1"/>
@@ -2087,26 +2145,31 @@
     <row r="984" ht="15.75" customHeight="1"/>
     <row r="985" ht="15.75" customHeight="1"/>
     <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="17">
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="B18:I18"/>
     <mergeCell ref="B12:J12"/>
     <mergeCell ref="B13:J13"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="B11:J11"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D25:J25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="landscape"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>